--- a/111.xlsx
+++ b/111.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\rouyi\rouyi\rouyi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A325F51B-AC6A-4A52-92D4-7830F4EB13E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95B5397-4D60-4E21-81AF-D3D83DA8E753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="3472" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公告用請勿編輯" sheetId="1" r:id="rId1"/>
@@ -7270,9 +7270,9 @@
   </sheetPr>
   <dimension ref="A1:H1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
